--- a/analysis_specifications/analysis2_joel_3.xlsx
+++ b/analysis_specifications/analysis2_joel_3.xlsx
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,6 +410,32 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2">
+        <v>783</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Pulmonary endarterectomy</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>784</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Balloon Pulmonary Angioplasty</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
